--- a/EUR.xlsx
+++ b/EUR.xlsx
@@ -469,12 +469,14 @@
     <col min="127" max="127" width="4.98046875" customWidth="true"/>
     <col min="128" max="128" width="9.9609375" customWidth="true"/>
     <col min="129" max="129" width="4.98046875" customWidth="true"/>
+    <col min="130" max="130" width="9.9609375" customWidth="true"/>
+    <col min="131" max="131" width="4.98046875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>Data extracted on 20/06/2025 16:09:36 from [ESTAT]</t>
+          <t>Data extracted on 30/06/2025 15:53:55 from [ESTAT]</t>
         </is>
       </c>
     </row>
@@ -486,7 +488,7 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Stock levels for gas products - monthly data [nrg_stk_gasm__custom_16946737]</t>
+          <t>Stock levels for gas products - monthly data [nrg_stk_gasm__custom_17300544]</t>
         </is>
       </c>
     </row>
@@ -498,7 +500,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>19/06/2025 23:00</t>
+          <t>27/06/2025 23:00</t>
         </is>
       </c>
     </row>
@@ -1200,6 +1202,16 @@
           <t/>
         </is>
       </c>
+      <c r="DZ10" s="4" t="inlineStr">
+        <is>
+          <t>2025-05</t>
+        </is>
+      </c>
+      <c r="EA10" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
@@ -1847,6 +1859,16 @@
           <t/>
         </is>
       </c>
+      <c r="DZ11" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA11" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="inlineStr">
@@ -1994,8 +2016,8 @@
           <t/>
         </is>
       </c>
-      <c r="AD12" s="20" t="n">
-        <v>42556.845</v>
+      <c r="AD12" s="31" t="n">
+        <v>42496.72</v>
       </c>
       <c r="AE12" s="11" t="inlineStr">
         <is>
@@ -2003,7 +2025,7 @@
         </is>
       </c>
       <c r="AF12" s="20" t="n">
-        <v>35357.417</v>
+        <v>35296.714</v>
       </c>
       <c r="AG12" s="11" t="inlineStr">
         <is>
@@ -2011,7 +2033,7 @@
         </is>
       </c>
       <c r="AH12" s="20" t="n">
-        <v>35482.738</v>
+        <v>35398.859</v>
       </c>
       <c r="AI12" s="11" t="inlineStr">
         <is>
@@ -2019,7 +2041,7 @@
         </is>
       </c>
       <c r="AJ12" s="20" t="n">
-        <v>43709.964</v>
+        <v>43639.308</v>
       </c>
       <c r="AK12" s="11" t="inlineStr">
         <is>
@@ -2027,7 +2049,7 @@
         </is>
       </c>
       <c r="AL12" s="20" t="n">
-        <v>54296.278</v>
+        <v>54252.852</v>
       </c>
       <c r="AM12" s="11" t="inlineStr">
         <is>
@@ -2035,7 +2057,7 @@
         </is>
       </c>
       <c r="AN12" s="20" t="n">
-        <v>63527.994</v>
+        <v>63586.093</v>
       </c>
       <c r="AO12" s="11" t="inlineStr">
         <is>
@@ -2043,7 +2065,7 @@
         </is>
       </c>
       <c r="AP12" s="20" t="n">
-        <v>74827.438</v>
+        <v>74762.723</v>
       </c>
       <c r="AQ12" s="11" t="inlineStr">
         <is>
@@ -2051,7 +2073,7 @@
         </is>
       </c>
       <c r="AR12" s="20" t="n">
-        <v>81895.563</v>
+        <v>81828.525</v>
       </c>
       <c r="AS12" s="11" t="inlineStr">
         <is>
@@ -2059,7 +2081,7 @@
         </is>
       </c>
       <c r="AT12" s="20" t="n">
-        <v>84800.064</v>
+        <v>84744.045</v>
       </c>
       <c r="AU12" s="11" t="inlineStr">
         <is>
@@ -2067,7 +2089,7 @@
         </is>
       </c>
       <c r="AV12" s="20" t="n">
-        <v>74151.779</v>
+        <v>74074.375</v>
       </c>
       <c r="AW12" s="11" t="inlineStr">
         <is>
@@ -2075,7 +2097,7 @@
         </is>
       </c>
       <c r="AX12" s="20" t="n">
-        <v>58927.538</v>
+        <v>58863.082</v>
       </c>
       <c r="AY12" s="11" t="inlineStr">
         <is>
@@ -2083,7 +2105,7 @@
         </is>
       </c>
       <c r="AZ12" s="20" t="n">
-        <v>42066.914</v>
+        <v>42038.327</v>
       </c>
       <c r="BA12" s="11" t="inlineStr">
         <is>
@@ -2091,7 +2113,7 @@
         </is>
       </c>
       <c r="BB12" s="20" t="n">
-        <v>33187.357</v>
+        <v>33149.283</v>
       </c>
       <c r="BC12" s="11" t="inlineStr">
         <is>
@@ -2099,7 +2121,7 @@
         </is>
       </c>
       <c r="BD12" s="20" t="n">
-        <v>30381.508</v>
+        <v>30339.399</v>
       </c>
       <c r="BE12" s="11" t="inlineStr">
         <is>
@@ -2107,7 +2129,7 @@
         </is>
       </c>
       <c r="BF12" s="20" t="n">
-        <v>37682.674</v>
+        <v>37644.183</v>
       </c>
       <c r="BG12" s="11" t="inlineStr">
         <is>
@@ -2115,15 +2137,15 @@
         </is>
       </c>
       <c r="BH12" s="20" t="n">
-        <v>52666.647</v>
+        <v>52619.278</v>
       </c>
       <c r="BI12" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="BJ12" s="31" t="n">
-        <v>64308.94</v>
+      <c r="BJ12" s="20" t="n">
+        <v>64356.379</v>
       </c>
       <c r="BK12" s="11" t="inlineStr">
         <is>
@@ -2131,7 +2153,7 @@
         </is>
       </c>
       <c r="BL12" s="20" t="n">
-        <v>76132.858</v>
+        <v>76184.944</v>
       </c>
       <c r="BM12" s="11" t="inlineStr">
         <is>
@@ -2139,7 +2161,7 @@
         </is>
       </c>
       <c r="BN12" s="20" t="n">
-        <v>89199.141</v>
+        <v>89165.853</v>
       </c>
       <c r="BO12" s="11" t="inlineStr">
         <is>
@@ -2147,7 +2169,7 @@
         </is>
       </c>
       <c r="BP12" s="20" t="n">
-        <v>98488.545</v>
+        <v>98470.838</v>
       </c>
       <c r="BQ12" s="11" t="inlineStr">
         <is>
@@ -2155,7 +2177,7 @@
         </is>
       </c>
       <c r="BR12" s="20" t="n">
-        <v>105128.978</v>
+        <v>105144.495</v>
       </c>
       <c r="BS12" s="11" t="inlineStr">
         <is>
@@ -2163,15 +2185,15 @@
         </is>
       </c>
       <c r="BT12" s="20" t="n">
-        <v>102872.494</v>
+        <v>102836.457</v>
       </c>
       <c r="BU12" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="BV12" s="20" t="n">
-        <v>91440.879</v>
+      <c r="BV12" s="31" t="n">
+        <v>91441.58</v>
       </c>
       <c r="BW12" s="11" t="inlineStr">
         <is>
@@ -2211,7 +2233,7 @@
         </is>
       </c>
       <c r="CF12" s="20" t="n">
-        <v>74868.776</v>
+        <v>74843.439</v>
       </c>
       <c r="CG12" s="11" t="inlineStr">
         <is>
@@ -2219,7 +2241,7 @@
         </is>
       </c>
       <c r="CH12" s="20" t="n">
-        <v>83030.555</v>
+        <v>83041.194</v>
       </c>
       <c r="CI12" s="11" t="inlineStr">
         <is>
@@ -2227,7 +2249,7 @@
         </is>
       </c>
       <c r="CJ12" s="20" t="n">
-        <v>92524.742</v>
+        <v>92535.251</v>
       </c>
       <c r="CK12" s="11" t="inlineStr">
         <is>
@@ -2235,7 +2257,7 @@
         </is>
       </c>
       <c r="CL12" s="20" t="n">
-        <v>101099.787</v>
+        <v>101110.427</v>
       </c>
       <c r="CM12" s="11" t="inlineStr">
         <is>
@@ -2243,7 +2265,7 @@
         </is>
       </c>
       <c r="CN12" s="20" t="n">
-        <v>104537.456</v>
+        <v>104548.096</v>
       </c>
       <c r="CO12" s="11" t="inlineStr">
         <is>
@@ -2251,7 +2273,7 @@
         </is>
       </c>
       <c r="CP12" s="20" t="n">
-        <v>108837.664</v>
+        <v>108851.022</v>
       </c>
       <c r="CQ12" s="11" t="inlineStr">
         <is>
@@ -2259,7 +2281,7 @@
         </is>
       </c>
       <c r="CR12" s="20" t="n">
-        <v>104624.906</v>
+        <v>104652.053</v>
       </c>
       <c r="CS12" s="11" t="inlineStr">
         <is>
@@ -2371,7 +2393,7 @@
         </is>
       </c>
       <c r="DT12" s="20" t="n">
-        <v>59667.404</v>
+        <v>59667.274</v>
       </c>
       <c r="DU12" s="11" t="inlineStr">
         <is>
@@ -2379,7 +2401,7 @@
         </is>
       </c>
       <c r="DV12" s="20" t="n">
-        <v>42919.724</v>
+        <v>42919.595</v>
       </c>
       <c r="DW12" s="11" t="inlineStr">
         <is>
@@ -2387,9 +2409,19 @@
         </is>
       </c>
       <c r="DX12" s="20" t="n">
-        <v>38324.802</v>
+        <v>38324.672</v>
       </c>
       <c r="DY12" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DZ12" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EA12" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2913,6 +2945,14 @@
           <t/>
         </is>
       </c>
+      <c r="DZ13" s="27" t="n">
+        <v>698.3</v>
+      </c>
+      <c r="EA13" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="inlineStr">
@@ -3432,6 +3472,14 @@
           <t/>
         </is>
       </c>
+      <c r="DZ14" s="20" t="n">
+        <v>165.027</v>
+      </c>
+      <c r="EA14" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="inlineStr">
@@ -3951,6 +3999,14 @@
           <t/>
         </is>
       </c>
+      <c r="DZ15" s="27" t="n">
+        <v>1111.77</v>
+      </c>
+      <c r="EA15" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="inlineStr">
@@ -4470,6 +4526,14 @@
           <t/>
         </is>
       </c>
+      <c r="DZ16" s="20" t="n">
+        <v>303.405</v>
+      </c>
+      <c r="EA16" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="inlineStr">
@@ -4989,6 +5053,16 @@
           <t/>
         </is>
       </c>
+      <c r="DZ17" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EA17" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="inlineStr">
@@ -5530,6 +5604,14 @@
           <t/>
         </is>
       </c>
+      <c r="DZ18" s="31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA18" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="inlineStr">
@@ -6077,6 +6159,14 @@
           <t/>
         </is>
       </c>
+      <c r="DZ19" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA19" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
@@ -6596,6 +6686,14 @@
           <t/>
         </is>
       </c>
+      <c r="DZ20" s="20" t="n">
+        <v>60.681</v>
+      </c>
+      <c r="EA20" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="inlineStr">
@@ -7115,6 +7213,14 @@
           <t/>
         </is>
       </c>
+      <c r="DZ21" s="19" t="n">
+        <v>2778.668</v>
+      </c>
+      <c r="EA21" s="10" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="8" t="inlineStr">
@@ -7634,6 +7740,14 @@
           <t/>
         </is>
       </c>
+      <c r="DZ22" s="31" t="n">
+        <v>4816.91</v>
+      </c>
+      <c r="EA22" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="inlineStr">
@@ -8153,6 +8267,14 @@
           <t/>
         </is>
       </c>
+      <c r="DZ23" s="27" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="EA23" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="inlineStr">
@@ -8672,6 +8794,14 @@
           <t/>
         </is>
       </c>
+      <c r="DZ24" s="20" t="n">
+        <v>9225.913</v>
+      </c>
+      <c r="EA24" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="inlineStr">
@@ -9191,6 +9321,14 @@
           <t/>
         </is>
       </c>
+      <c r="DZ25" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA25" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="inlineStr">
@@ -9710,6 +9848,14 @@
           <t/>
         </is>
       </c>
+      <c r="DZ26" s="20" t="n">
+        <v>638.978</v>
+      </c>
+      <c r="EA26" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="8" t="inlineStr">
@@ -10229,6 +10375,14 @@
           <t/>
         </is>
       </c>
+      <c r="DZ27" s="27" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="EA27" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="8" t="inlineStr">
@@ -10772,6 +10926,14 @@
           <t/>
         </is>
       </c>
+      <c r="DZ28" s="31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA28" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="inlineStr">
@@ -11291,6 +11453,14 @@
           <t/>
         </is>
       </c>
+      <c r="DZ29" s="27" t="n">
+        <v>2438.6</v>
+      </c>
+      <c r="EA29" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="8" t="inlineStr">
@@ -11810,6 +11980,14 @@
           <t/>
         </is>
       </c>
+      <c r="DZ30" s="20" t="n">
+        <v>60.968</v>
+      </c>
+      <c r="EA30" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="inlineStr">
@@ -11818,7 +11996,7 @@
         </is>
       </c>
       <c r="B31" s="19" t="n">
-        <v>11786.402</v>
+        <v>11764.187</v>
       </c>
       <c r="C31" s="10" t="inlineStr">
         <is>
@@ -11826,7 +12004,7 @@
         </is>
       </c>
       <c r="D31" s="19" t="n">
-        <v>10010.465</v>
+        <v>9974.072</v>
       </c>
       <c r="E31" s="10" t="inlineStr">
         <is>
@@ -11834,7 +12012,7 @@
         </is>
       </c>
       <c r="F31" s="19" t="n">
-        <v>8393.987</v>
+        <v>8359.766</v>
       </c>
       <c r="G31" s="10" t="inlineStr">
         <is>
@@ -11842,7 +12020,7 @@
         </is>
       </c>
       <c r="H31" s="19" t="n">
-        <v>6928.439</v>
+        <v>6885.739</v>
       </c>
       <c r="I31" s="10" t="inlineStr">
         <is>
@@ -11850,7 +12028,7 @@
         </is>
       </c>
       <c r="J31" s="19" t="n">
-        <v>8174.307</v>
+        <v>8131.646</v>
       </c>
       <c r="K31" s="10" t="inlineStr">
         <is>
@@ -11858,7 +12036,7 @@
         </is>
       </c>
       <c r="L31" s="19" t="n">
-        <v>9892.477</v>
+        <v>9868.269</v>
       </c>
       <c r="M31" s="10" t="inlineStr">
         <is>
@@ -11866,7 +12044,7 @@
         </is>
       </c>
       <c r="N31" s="19" t="n">
-        <v>11367.801</v>
+        <v>11354.922</v>
       </c>
       <c r="O31" s="10" t="inlineStr">
         <is>
@@ -11874,7 +12052,7 @@
         </is>
       </c>
       <c r="P31" s="19" t="n">
-        <v>12249.964</v>
+        <v>12226.243</v>
       </c>
       <c r="Q31" s="10" t="inlineStr">
         <is>
@@ -11882,7 +12060,7 @@
         </is>
       </c>
       <c r="R31" s="19" t="n">
-        <v>12989.849</v>
+        <v>12990.262</v>
       </c>
       <c r="S31" s="10" t="inlineStr">
         <is>
@@ -11890,7 +12068,7 @@
         </is>
       </c>
       <c r="T31" s="19" t="n">
-        <v>14377.161</v>
+        <v>14358.004</v>
       </c>
       <c r="U31" s="10" t="inlineStr">
         <is>
@@ -11898,7 +12076,7 @@
         </is>
       </c>
       <c r="V31" s="19" t="n">
-        <v>14157.422</v>
+        <v>14100.209</v>
       </c>
       <c r="W31" s="10" t="inlineStr">
         <is>
@@ -11906,7 +12084,7 @@
         </is>
       </c>
       <c r="X31" s="19" t="n">
-        <v>13651.209</v>
+        <v>13630.131</v>
       </c>
       <c r="Y31" s="10" t="inlineStr">
         <is>
@@ -11914,15 +12092,15 @@
         </is>
       </c>
       <c r="Z31" s="19" t="n">
-        <v>11671.256</v>
+        <v>11666.176</v>
       </c>
       <c r="AA31" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AB31" s="19" t="n">
-        <v>7474.515</v>
+      <c r="AB31" s="27" t="n">
+        <v>7423.78</v>
       </c>
       <c r="AC31" s="10" t="inlineStr">
         <is>
@@ -11930,7 +12108,7 @@
         </is>
       </c>
       <c r="AD31" s="19" t="n">
-        <v>4875.172</v>
+        <v>4815.047</v>
       </c>
       <c r="AE31" s="10" t="inlineStr">
         <is>
@@ -11938,7 +12116,7 @@
         </is>
       </c>
       <c r="AF31" s="19" t="n">
-        <v>3753.158</v>
+        <v>3692.455</v>
       </c>
       <c r="AG31" s="10" t="inlineStr">
         <is>
@@ -11946,7 +12124,7 @@
         </is>
       </c>
       <c r="AH31" s="19" t="n">
-        <v>3104.255</v>
+        <v>3020.376</v>
       </c>
       <c r="AI31" s="10" t="inlineStr">
         <is>
@@ -11954,7 +12132,7 @@
         </is>
       </c>
       <c r="AJ31" s="19" t="n">
-        <v>3422.658</v>
+        <v>3352.002</v>
       </c>
       <c r="AK31" s="10" t="inlineStr">
         <is>
@@ -11962,7 +12140,7 @@
         </is>
       </c>
       <c r="AL31" s="19" t="n">
-        <v>4900.277</v>
+        <v>4856.851</v>
       </c>
       <c r="AM31" s="10" t="inlineStr">
         <is>
@@ -11970,7 +12148,7 @@
         </is>
       </c>
       <c r="AN31" s="19" t="n">
-        <v>6146.325</v>
+        <v>6204.424</v>
       </c>
       <c r="AO31" s="10" t="inlineStr">
         <is>
@@ -11978,7 +12156,7 @@
         </is>
       </c>
       <c r="AP31" s="19" t="n">
-        <v>7791.037</v>
+        <v>7726.322</v>
       </c>
       <c r="AQ31" s="10" t="inlineStr">
         <is>
@@ -11986,15 +12164,15 @@
         </is>
       </c>
       <c r="AR31" s="19" t="n">
-        <v>9416.886</v>
+        <v>9349.848</v>
       </c>
       <c r="AS31" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AT31" s="19" t="n">
-        <v>9329.059</v>
+      <c r="AT31" s="27" t="n">
+        <v>9273.04</v>
       </c>
       <c r="AU31" s="10" t="inlineStr">
         <is>
@@ -12002,7 +12180,7 @@
         </is>
       </c>
       <c r="AV31" s="19" t="n">
-        <v>8288.586</v>
+        <v>8211.182</v>
       </c>
       <c r="AW31" s="10" t="inlineStr">
         <is>
@@ -12010,15 +12188,15 @@
         </is>
       </c>
       <c r="AX31" s="19" t="n">
-        <v>5335.961</v>
+        <v>5271.505</v>
       </c>
       <c r="AY31" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AZ31" s="19" t="n">
-        <v>4206.757</v>
+      <c r="AZ31" s="27" t="n">
+        <v>4178.17</v>
       </c>
       <c r="BA31" s="10" t="inlineStr">
         <is>
@@ -12026,7 +12204,7 @@
         </is>
       </c>
       <c r="BB31" s="19" t="n">
-        <v>3460.069</v>
+        <v>3421.995</v>
       </c>
       <c r="BC31" s="10" t="inlineStr">
         <is>
@@ -12034,7 +12212,7 @@
         </is>
       </c>
       <c r="BD31" s="19" t="n">
-        <v>3348.288</v>
+        <v>3306.179</v>
       </c>
       <c r="BE31" s="10" t="inlineStr">
         <is>
@@ -12042,7 +12220,7 @@
         </is>
       </c>
       <c r="BF31" s="19" t="n">
-        <v>4264.436</v>
+        <v>4225.945</v>
       </c>
       <c r="BG31" s="10" t="inlineStr">
         <is>
@@ -12050,23 +12228,23 @@
         </is>
       </c>
       <c r="BH31" s="19" t="n">
-        <v>6295.203</v>
+        <v>6247.834</v>
       </c>
       <c r="BI31" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="BJ31" s="19" t="n">
-        <v>8261.361</v>
+      <c r="BJ31" s="27" t="n">
+        <v>8308.8</v>
       </c>
       <c r="BK31" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="BL31" s="19" t="n">
-        <v>10246.594</v>
+      <c r="BL31" s="27" t="n">
+        <v>10298.68</v>
       </c>
       <c r="BM31" s="10" t="inlineStr">
         <is>
@@ -12074,7 +12252,7 @@
         </is>
       </c>
       <c r="BN31" s="19" t="n">
-        <v>11864.989</v>
+        <v>11831.701</v>
       </c>
       <c r="BO31" s="10" t="inlineStr">
         <is>
@@ -12082,7 +12260,7 @@
         </is>
       </c>
       <c r="BP31" s="19" t="n">
-        <v>13985.806</v>
+        <v>13968.099</v>
       </c>
       <c r="BQ31" s="10" t="inlineStr">
         <is>
@@ -12090,7 +12268,7 @@
         </is>
       </c>
       <c r="BR31" s="19" t="n">
-        <v>13975.445</v>
+        <v>13990.962</v>
       </c>
       <c r="BS31" s="10" t="inlineStr">
         <is>
@@ -12098,7 +12276,7 @@
         </is>
       </c>
       <c r="BT31" s="19" t="n">
-        <v>13507.329</v>
+        <v>13471.292</v>
       </c>
       <c r="BU31" s="10" t="inlineStr">
         <is>
@@ -12106,7 +12284,7 @@
         </is>
       </c>
       <c r="BV31" s="19" t="n">
-        <v>11672.075</v>
+        <v>11672.776</v>
       </c>
       <c r="BW31" s="10" t="inlineStr">
         <is>
@@ -12145,8 +12323,8 @@
           <t/>
         </is>
       </c>
-      <c r="CF31" s="19" t="n">
-        <v>10641.617</v>
+      <c r="CF31" s="27" t="n">
+        <v>10616.28</v>
       </c>
       <c r="CG31" s="10" t="inlineStr">
         <is>
@@ -12154,7 +12332,7 @@
         </is>
       </c>
       <c r="CH31" s="19" t="n">
-        <v>12140.089</v>
+        <v>12150.728</v>
       </c>
       <c r="CI31" s="10" t="inlineStr">
         <is>
@@ -12162,7 +12340,7 @@
         </is>
       </c>
       <c r="CJ31" s="19" t="n">
-        <v>13659.397</v>
+        <v>13669.906</v>
       </c>
       <c r="CK31" s="10" t="inlineStr">
         <is>
@@ -12170,7 +12348,7 @@
         </is>
       </c>
       <c r="CL31" s="19" t="n">
-        <v>14656.157</v>
+        <v>14666.797</v>
       </c>
       <c r="CM31" s="10" t="inlineStr">
         <is>
@@ -12178,7 +12356,7 @@
         </is>
       </c>
       <c r="CN31" s="27" t="n">
-        <v>14795.89</v>
+        <v>14806.53</v>
       </c>
       <c r="CO31" s="10" t="inlineStr">
         <is>
@@ -12186,7 +12364,7 @@
         </is>
       </c>
       <c r="CP31" s="19" t="n">
-        <v>15174.003</v>
+        <v>15187.361</v>
       </c>
       <c r="CQ31" s="10" t="inlineStr">
         <is>
@@ -12194,7 +12372,7 @@
         </is>
       </c>
       <c r="CR31" s="19" t="n">
-        <v>14532.738</v>
+        <v>14559.885</v>
       </c>
       <c r="CS31" s="10" t="inlineStr">
         <is>
@@ -12306,15 +12484,15 @@
         </is>
       </c>
       <c r="DT31" s="19" t="n">
-        <v>5984.169</v>
+        <v>5984.039</v>
       </c>
       <c r="DU31" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="DV31" s="19" t="n">
-        <v>4353.829</v>
+      <c r="DV31" s="27" t="n">
+        <v>4353.7</v>
       </c>
       <c r="DW31" s="10" t="inlineStr">
         <is>
@@ -12322,9 +12500,17 @@
         </is>
       </c>
       <c r="DX31" s="19" t="n">
-        <v>3532.337</v>
+        <v>3532.207</v>
       </c>
       <c r="DY31" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DZ31" s="19" t="n">
+        <v>4283.206</v>
+      </c>
+      <c r="EA31" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -12848,6 +13034,14 @@
           <t/>
         </is>
       </c>
+      <c r="DZ32" s="20" t="n">
+        <v>4358.224</v>
+      </c>
+      <c r="EA32" s="11" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="inlineStr">
@@ -13367,6 +13561,14 @@
           <t/>
         </is>
       </c>
+      <c r="DZ33" s="19" t="n">
+        <v>1649.487</v>
+      </c>
+      <c r="EA33" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="8" t="inlineStr">
@@ -13886,6 +14088,14 @@
           <t>p</t>
         </is>
       </c>
+      <c r="DZ34" s="20" t="n">
+        <v>488.017</v>
+      </c>
+      <c r="EA34" s="11" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="8" t="inlineStr">
@@ -14405,6 +14615,14 @@
           <t>p</t>
         </is>
       </c>
+      <c r="DZ35" s="27" t="n">
+        <v>1031.0</v>
+      </c>
+      <c r="EA35" s="10" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="8" t="inlineStr">
@@ -15004,6 +15222,16 @@
           <t/>
         </is>
       </c>
+      <c r="DZ36" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EA36" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="8" t="inlineStr">
@@ -15523,6 +15751,16 @@
           <t/>
         </is>
       </c>
+      <c r="DZ37" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EA37" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="8" t="inlineStr">
@@ -16042,6 +16280,14 @@
           <t/>
         </is>
       </c>
+      <c r="DZ38" s="31" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="EA38" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="8" t="inlineStr">
@@ -16585,6 +16831,14 @@
           <t/>
         </is>
       </c>
+      <c r="DZ39" s="19" t="n">
+        <v>34.857</v>
+      </c>
+      <c r="EA39" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="8" t="inlineStr">
@@ -17232,6 +17486,16 @@
           <t/>
         </is>
       </c>
+      <c r="DZ40" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EA40" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="8" t="inlineStr">
@@ -17743,10 +18007,18 @@
           <t/>
         </is>
       </c>
-      <c r="DX41" s="27" t="n">
-        <v>0.0</v>
+      <c r="DX41" s="19" t="n">
+        <v>47.912</v>
       </c>
       <c r="DY41" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DZ41" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA41" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -18378,6 +18650,16 @@
           <t/>
         </is>
       </c>
+      <c r="DZ42" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EA42" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="8" t="inlineStr">
@@ -18945,6 +19227,14 @@
           <t/>
         </is>
       </c>
+      <c r="DZ43" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA43" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="8" t="inlineStr">
@@ -19480,12 +19770,20 @@
           <t/>
         </is>
       </c>
-      <c r="DX44" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="DX44" s="20" t="n">
+        <v>25.521</v>
       </c>
       <c r="DY44" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DZ44" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EA44" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -20001,12 +20299,20 @@
           <t/>
         </is>
       </c>
-      <c r="DX45" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="DX45" s="19" t="n">
+        <v>1.039</v>
       </c>
       <c r="DY45" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DZ45" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EA45" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -20554,6 +20860,16 @@
           <t/>
         </is>
       </c>
+      <c r="DZ46" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EA46" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="8" t="inlineStr">
@@ -21095,6 +21411,16 @@
           <t/>
         </is>
       </c>
+      <c r="DZ47" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EA47" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="8" t="inlineStr">
@@ -21614,6 +21940,16 @@
           <t/>
         </is>
       </c>
+      <c r="DZ48" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EA48" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="8" t="inlineStr">
@@ -22133,6 +22469,16 @@
           <t/>
         </is>
       </c>
+      <c r="DZ49" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EA49" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="8" t="inlineStr">
@@ -22730,6 +23076,16 @@
           <t/>
         </is>
       </c>
+      <c r="DZ50" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EA50" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="8" t="inlineStr">
@@ -23349,6 +23705,16 @@
           <t/>
         </is>
       </c>
+      <c r="DZ51" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EA51" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -23379,17 +23745,29 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>estimated</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
           <t>p</t>
         </is>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>provisional</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="65">
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
@@ -23454,6 +23832,7 @@
     <mergeCell ref="DT10:DU10"/>
     <mergeCell ref="DV10:DW10"/>
     <mergeCell ref="DX10:DY10"/>
+    <mergeCell ref="DZ10:EA10"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/EUR.xlsx
+++ b/EUR.xlsx
@@ -73,7 +73,7 @@
       <u val="single"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +128,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="F6F6F6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -205,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment wrapText="false" horizontal="left" vertical="center"/>
@@ -324,6 +334,12 @@
     </xf>
     <xf numFmtId="167" fontId="6" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true" applyNumberFormat="true">
       <alignment shrinkToFit="true" horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment shrinkToFit="false" horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment shrinkToFit="false" horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -471,12 +487,14 @@
     <col min="129" max="129" width="4.98046875" customWidth="true"/>
     <col min="130" max="130" width="9.9609375" customWidth="true"/>
     <col min="131" max="131" width="4.98046875" customWidth="true"/>
+    <col min="132" max="132" width="9.9609375" customWidth="true"/>
+    <col min="133" max="133" width="4.98046875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>Data extracted on 30/06/2025 15:53:55 from [ESTAT]</t>
+          <t>Data extracted on 28/07/2025 15:18:49 from [ESTAT]</t>
         </is>
       </c>
     </row>
@@ -488,7 +506,7 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Stock levels for gas products - monthly data [nrg_stk_gasm__custom_17300544]</t>
+          <t>Stock levels for gas products - monthly data [nrg_stk_gasm__custom_17604172]</t>
         </is>
       </c>
     </row>
@@ -500,7 +518,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>27/06/2025 23:00</t>
+          <t>24/07/2025 23:00</t>
         </is>
       </c>
     </row>
@@ -1212,6 +1230,16 @@
           <t/>
         </is>
       </c>
+      <c r="EB10" s="4" t="inlineStr">
+        <is>
+          <t>2025-06</t>
+        </is>
+      </c>
+      <c r="EC10" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
@@ -1869,6 +1897,16 @@
           <t/>
         </is>
       </c>
+      <c r="EB11" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EC11" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="inlineStr">
@@ -2393,7 +2431,7 @@
         </is>
       </c>
       <c r="DT12" s="20" t="n">
-        <v>59667.274</v>
+        <v>59667.263</v>
       </c>
       <c r="DU12" s="11" t="inlineStr">
         <is>
@@ -2401,7 +2439,7 @@
         </is>
       </c>
       <c r="DV12" s="20" t="n">
-        <v>42919.595</v>
+        <v>42919.584</v>
       </c>
       <c r="DW12" s="11" t="inlineStr">
         <is>
@@ -2409,19 +2447,27 @@
         </is>
       </c>
       <c r="DX12" s="20" t="n">
-        <v>38324.672</v>
+        <v>38334.358</v>
       </c>
       <c r="DY12" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="DZ12" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="DZ12" s="20" t="n">
+        <v>43897.617</v>
       </c>
       <c r="EA12" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB12" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EC12" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2953,6 +2999,14 @@
           <t/>
         </is>
       </c>
+      <c r="EB13" s="27" t="n">
+        <v>789.6</v>
+      </c>
+      <c r="EC13" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="inlineStr">
@@ -3480,6 +3534,14 @@
           <t/>
         </is>
       </c>
+      <c r="EB14" s="20" t="n">
+        <v>226.939</v>
+      </c>
+      <c r="EC14" s="11" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="inlineStr">
@@ -4007,6 +4069,14 @@
           <t/>
         </is>
       </c>
+      <c r="EB15" s="19" t="n">
+        <v>1466.666</v>
+      </c>
+      <c r="EC15" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="inlineStr">
@@ -4534,6 +4604,14 @@
           <t/>
         </is>
       </c>
+      <c r="EB16" s="31" t="n">
+        <v>302.81</v>
+      </c>
+      <c r="EC16" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="inlineStr">
@@ -5053,12 +5131,20 @@
           <t/>
         </is>
       </c>
-      <c r="DZ17" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="DZ17" s="27" t="n">
+        <v>7402.0</v>
       </c>
       <c r="EA17" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB17" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EC17" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5612,6 +5698,14 @@
           <t/>
         </is>
       </c>
+      <c r="EB18" s="31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC18" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="inlineStr">
@@ -6167,6 +6261,14 @@
           <t/>
         </is>
       </c>
+      <c r="EB19" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC19" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
@@ -6694,6 +6796,16 @@
           <t/>
         </is>
       </c>
+      <c r="EB20" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EC20" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="inlineStr">
@@ -7218,6 +7330,14 @@
       </c>
       <c r="EA21" s="10" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB21" s="27" t="n">
+        <v>3004.13</v>
+      </c>
+      <c r="EC21" s="10" t="inlineStr">
+        <is>
           <t>e</t>
         </is>
       </c>
@@ -7748,6 +7868,14 @@
           <t/>
         </is>
       </c>
+      <c r="EB22" s="20" t="n">
+        <v>6202.066</v>
+      </c>
+      <c r="EC22" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="inlineStr">
@@ -8275,6 +8403,14 @@
           <t/>
         </is>
       </c>
+      <c r="EB23" s="27" t="n">
+        <v>205.4</v>
+      </c>
+      <c r="EC23" s="10" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="inlineStr">
@@ -8802,6 +8938,14 @@
           <t/>
         </is>
       </c>
+      <c r="EB24" s="20" t="n">
+        <v>11616.734</v>
+      </c>
+      <c r="EC24" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="inlineStr">
@@ -9329,6 +9473,14 @@
           <t/>
         </is>
       </c>
+      <c r="EB25" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC25" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="inlineStr">
@@ -9856,6 +10008,14 @@
           <t/>
         </is>
       </c>
+      <c r="EB26" s="20" t="n">
+        <v>754.558</v>
+      </c>
+      <c r="EC26" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="8" t="inlineStr">
@@ -10383,6 +10543,14 @@
           <t/>
         </is>
       </c>
+      <c r="EB27" s="27" t="n">
+        <v>82.9</v>
+      </c>
+      <c r="EC27" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="8" t="inlineStr">
@@ -10934,6 +11102,14 @@
           <t/>
         </is>
       </c>
+      <c r="EB28" s="31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC28" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="inlineStr">
@@ -11461,6 +11637,14 @@
           <t/>
         </is>
       </c>
+      <c r="EB29" s="27" t="n">
+        <v>2847.9</v>
+      </c>
+      <c r="EC29" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="8" t="inlineStr">
@@ -11988,6 +12172,14 @@
           <t/>
         </is>
       </c>
+      <c r="EB30" s="31" t="n">
+        <v>34.73</v>
+      </c>
+      <c r="EC30" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="inlineStr">
@@ -12484,15 +12676,15 @@
         </is>
       </c>
       <c r="DT31" s="19" t="n">
-        <v>5984.039</v>
+        <v>5984.028</v>
       </c>
       <c r="DU31" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="DV31" s="27" t="n">
-        <v>4353.7</v>
+      <c r="DV31" s="19" t="n">
+        <v>4353.689</v>
       </c>
       <c r="DW31" s="10" t="inlineStr">
         <is>
@@ -12500,7 +12692,7 @@
         </is>
       </c>
       <c r="DX31" s="19" t="n">
-        <v>3532.207</v>
+        <v>3532.196</v>
       </c>
       <c r="DY31" s="10" t="inlineStr">
         <is>
@@ -12508,9 +12700,17 @@
         </is>
       </c>
       <c r="DZ31" s="19" t="n">
-        <v>4283.206</v>
+        <v>4282.414</v>
       </c>
       <c r="EA31" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB31" s="19" t="n">
+        <v>5809.565</v>
+      </c>
+      <c r="EC31" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -13039,6 +13239,14 @@
       </c>
       <c r="EA32" s="11" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB32" s="20" t="n">
+        <v>4955.365</v>
+      </c>
+      <c r="EC32" s="11" t="inlineStr">
+        <is>
           <t>p</t>
         </is>
       </c>
@@ -13569,6 +13777,16 @@
           <t/>
         </is>
       </c>
+      <c r="EB33" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EC33" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="8" t="inlineStr">
@@ -14096,6 +14314,14 @@
           <t>p</t>
         </is>
       </c>
+      <c r="EB34" s="31" t="n">
+        <v>487.48</v>
+      </c>
+      <c r="EC34" s="11" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="8" t="inlineStr">
@@ -14612,7 +14838,7 @@
       </c>
       <c r="DY35" s="10" t="inlineStr">
         <is>
-          <t>p</t>
+          <t/>
         </is>
       </c>
       <c r="DZ35" s="27" t="n">
@@ -14621,6 +14847,16 @@
       <c r="EA35" s="10" t="inlineStr">
         <is>
           <t>p</t>
+        </is>
+      </c>
+      <c r="EB35" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EC35" s="10" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -15232,6 +15468,16 @@
           <t/>
         </is>
       </c>
+      <c r="EB36" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EC36" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="8" t="inlineStr">
@@ -15744,19 +15990,25 @@
         </is>
       </c>
       <c r="DX37" s="19" t="n">
-        <v>2225.095</v>
+        <v>2234.792</v>
       </c>
       <c r="DY37" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="DZ37" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="DZ37" s="19" t="n">
+        <v>2184.298</v>
       </c>
       <c r="EA37" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB37" s="19" t="n">
+        <v>2170.872</v>
+      </c>
+      <c r="EC37" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -16288,6 +16540,14 @@
           <t/>
         </is>
       </c>
+      <c r="EB38" s="31" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="EC38" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="8" t="inlineStr">
@@ -16839,6 +17099,14 @@
           <t/>
         </is>
       </c>
+      <c r="EB39" s="19" t="n">
+        <v>38.653</v>
+      </c>
+      <c r="EC39" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="8" t="inlineStr">
@@ -17496,6 +17764,16 @@
           <t/>
         </is>
       </c>
+      <c r="EB40" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EC40" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="8" t="inlineStr">
@@ -18015,10 +18293,18 @@
           <t/>
         </is>
       </c>
-      <c r="DZ41" s="27" t="n">
-        <v>0.0</v>
+      <c r="DZ41" s="19" t="n">
+        <v>81.073</v>
       </c>
       <c r="EA41" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB41" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC41" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -18660,6 +18946,16 @@
           <t/>
         </is>
       </c>
+      <c r="EB42" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EC42" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="8" t="inlineStr">
@@ -19235,6 +19531,14 @@
           <t/>
         </is>
       </c>
+      <c r="EB43" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC43" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="8" t="inlineStr">
@@ -19778,12 +20082,20 @@
           <t/>
         </is>
       </c>
-      <c r="DZ44" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="DZ44" s="20" t="n">
+        <v>23.847</v>
       </c>
       <c r="EA44" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB44" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EC44" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -20317,6 +20629,16 @@
           <t/>
         </is>
       </c>
+      <c r="EB45" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EC45" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="8" t="inlineStr">
@@ -20860,12 +21182,20 @@
           <t/>
         </is>
       </c>
-      <c r="DZ46" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="DZ46" s="31" t="n">
+        <v>0.0</v>
       </c>
       <c r="EA46" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB46" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EC46" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -21421,6 +21751,16 @@
           <t/>
         </is>
       </c>
+      <c r="EB47" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EC47" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="8" t="inlineStr">
@@ -21940,12 +22280,20 @@
           <t/>
         </is>
       </c>
-      <c r="DZ48" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="DZ48" s="31" t="n">
+        <v>596.0</v>
       </c>
       <c r="EA48" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB48" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EC48" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -22479,6 +22827,16 @@
           <t/>
         </is>
       </c>
+      <c r="EB49" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EC49" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="8" t="inlineStr">
@@ -23086,6 +23444,16 @@
           <t/>
         </is>
       </c>
+      <c r="EB50" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EC50" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="8" t="inlineStr">
@@ -23715,6 +24083,16 @@
           <t/>
         </is>
       </c>
+      <c r="EB51" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EC51" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -23767,7 +24145,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="66">
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
@@ -23833,6 +24211,7 @@
     <mergeCell ref="DV10:DW10"/>
     <mergeCell ref="DX10:DY10"/>
     <mergeCell ref="DZ10:EA10"/>
+    <mergeCell ref="EB10:EC10"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/EUR.xlsx
+++ b/EUR.xlsx
@@ -489,12 +489,14 @@
     <col min="131" max="131" width="4.98046875" customWidth="true"/>
     <col min="132" max="132" width="9.9609375" customWidth="true"/>
     <col min="133" max="133" width="4.98046875" customWidth="true"/>
+    <col min="134" max="134" width="9.9609375" customWidth="true"/>
+    <col min="135" max="135" width="4.98046875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>Data extracted on 28/07/2025 15:18:49 from [ESTAT]</t>
+          <t>Data extracted on 25/08/2025 14:40:05 from [ESTAT]</t>
         </is>
       </c>
     </row>
@@ -506,7 +508,7 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Stock levels for gas products - monthly data [nrg_stk_gasm__custom_17604172]</t>
+          <t>Stock levels for gas products - monthly data [nrg_stk_gasm__custom_17860137]</t>
         </is>
       </c>
     </row>
@@ -518,7 +520,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>24/07/2025 23:00</t>
+          <t>22/08/2025 23:00</t>
         </is>
       </c>
     </row>
@@ -1240,6 +1242,16 @@
           <t/>
         </is>
       </c>
+      <c r="ED10" s="4" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="EE10" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
@@ -1907,6 +1919,16 @@
           <t/>
         </is>
       </c>
+      <c r="ED11" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EE11" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="inlineStr">
@@ -2431,7 +2453,7 @@
         </is>
       </c>
       <c r="DT12" s="20" t="n">
-        <v>59667.263</v>
+        <v>59667.264</v>
       </c>
       <c r="DU12" s="11" t="inlineStr">
         <is>
@@ -2447,7 +2469,7 @@
         </is>
       </c>
       <c r="DX12" s="20" t="n">
-        <v>38334.358</v>
+        <v>38423.802</v>
       </c>
       <c r="DY12" s="11" t="inlineStr">
         <is>
@@ -2455,7 +2477,7 @@
         </is>
       </c>
       <c r="DZ12" s="20" t="n">
-        <v>43897.617</v>
+        <v>43987.059</v>
       </c>
       <c r="EA12" s="11" t="inlineStr">
         <is>
@@ -2468,6 +2490,16 @@
         </is>
       </c>
       <c r="EC12" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ED12" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EE12" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3007,6 +3039,14 @@
           <t/>
         </is>
       </c>
+      <c r="ED13" s="27" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="EE13" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="inlineStr">
@@ -3539,6 +3579,14 @@
       </c>
       <c r="EC14" s="11" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ED14" s="20" t="n">
+        <v>273.279</v>
+      </c>
+      <c r="EE14" s="11" t="inlineStr">
+        <is>
           <t>p</t>
         </is>
       </c>
@@ -4077,6 +4125,14 @@
           <t/>
         </is>
       </c>
+      <c r="ED15" s="19" t="n">
+        <v>2056.359</v>
+      </c>
+      <c r="EE15" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="inlineStr">
@@ -4612,6 +4668,14 @@
           <t/>
         </is>
       </c>
+      <c r="ED16" s="20" t="n">
+        <v>296.071</v>
+      </c>
+      <c r="EE16" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="inlineStr">
@@ -5139,12 +5203,20 @@
           <t/>
         </is>
       </c>
-      <c r="EB17" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="EB17" s="27" t="n">
+        <v>9112.0</v>
       </c>
       <c r="EC17" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ED17" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EE17" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5706,6 +5778,14 @@
           <t/>
         </is>
       </c>
+      <c r="ED18" s="31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EE18" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="inlineStr">
@@ -6269,6 +6349,14 @@
           <t/>
         </is>
       </c>
+      <c r="ED19" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EE19" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
@@ -6806,6 +6894,16 @@
           <t/>
         </is>
       </c>
+      <c r="ED20" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EE20" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="inlineStr">
@@ -7338,6 +7436,14 @@
       </c>
       <c r="EC21" s="10" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ED21" s="19" t="n">
+        <v>2988.313</v>
+      </c>
+      <c r="EE21" s="10" t="inlineStr">
+        <is>
           <t>e</t>
         </is>
       </c>
@@ -7876,6 +7982,14 @@
           <t/>
         </is>
       </c>
+      <c r="ED22" s="20" t="n">
+        <v>7408.155</v>
+      </c>
+      <c r="EE22" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="inlineStr">
@@ -8408,6 +8522,14 @@
       </c>
       <c r="EC23" s="10" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ED23" s="27" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="EE23" s="10" t="inlineStr">
+        <is>
           <t>p</t>
         </is>
       </c>
@@ -8946,6 +9068,14 @@
           <t/>
         </is>
       </c>
+      <c r="ED24" s="20" t="n">
+        <v>13873.813</v>
+      </c>
+      <c r="EE24" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="inlineStr">
@@ -9481,6 +9611,14 @@
           <t/>
         </is>
       </c>
+      <c r="ED25" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EE25" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="inlineStr">
@@ -10016,6 +10154,14 @@
           <t/>
         </is>
       </c>
+      <c r="ED26" s="20" t="n">
+        <v>896.589</v>
+      </c>
+      <c r="EE26" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="8" t="inlineStr">
@@ -10551,6 +10697,14 @@
           <t/>
         </is>
       </c>
+      <c r="ED27" s="27" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="EE27" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="8" t="inlineStr">
@@ -11110,6 +11264,16 @@
           <t/>
         </is>
       </c>
+      <c r="ED28" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EE28" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="inlineStr">
@@ -11645,6 +11809,14 @@
           <t/>
         </is>
       </c>
+      <c r="ED29" s="27" t="n">
+        <v>3314.9</v>
+      </c>
+      <c r="EE29" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="8" t="inlineStr">
@@ -12180,6 +12352,14 @@
           <t/>
         </is>
       </c>
+      <c r="ED30" s="31" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="EE30" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="inlineStr">
@@ -12692,7 +12872,7 @@
         </is>
       </c>
       <c r="DX31" s="19" t="n">
-        <v>3532.196</v>
+        <v>3621.639</v>
       </c>
       <c r="DY31" s="10" t="inlineStr">
         <is>
@@ -12700,7 +12880,7 @@
         </is>
       </c>
       <c r="DZ31" s="19" t="n">
-        <v>4282.414</v>
+        <v>4371.857</v>
       </c>
       <c r="EA31" s="10" t="inlineStr">
         <is>
@@ -12708,9 +12888,17 @@
         </is>
       </c>
       <c r="EB31" s="19" t="n">
-        <v>5809.565</v>
+        <v>5895.839</v>
       </c>
       <c r="EC31" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ED31" s="19" t="n">
+        <v>7856.609</v>
+      </c>
+      <c r="EE31" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -13247,6 +13435,14 @@
       </c>
       <c r="EC32" s="11" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ED32" s="20" t="n">
+        <v>5951.215</v>
+      </c>
+      <c r="EE32" s="11" t="inlineStr">
+        <is>
           <t>p</t>
         </is>
       </c>
@@ -13777,12 +13973,18 @@
           <t/>
         </is>
       </c>
-      <c r="EB33" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="EB33" s="19" t="n">
+        <v>1888.651</v>
       </c>
       <c r="EC33" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ED33" s="19" t="n">
+        <v>2385.651</v>
+      </c>
+      <c r="EE33" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14322,6 +14524,14 @@
           <t>p</t>
         </is>
       </c>
+      <c r="ED34" s="20" t="n">
+        <v>477.174</v>
+      </c>
+      <c r="EE34" s="11" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="8" t="inlineStr">
@@ -14846,17 +15056,23 @@
       </c>
       <c r="EA35" s="10" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB35" s="27" t="n">
+        <v>1360.0</v>
+      </c>
+      <c r="EC35" s="10" t="inlineStr">
+        <is>
           <t>p</t>
         </is>
       </c>
-      <c r="EB35" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
-      </c>
-      <c r="EC35" s="10" t="inlineStr">
-        <is>
-          <t/>
+      <c r="ED35" s="27" t="n">
+        <v>1749.0</v>
+      </c>
+      <c r="EE35" s="10" t="inlineStr">
+        <is>
+          <t>p</t>
         </is>
       </c>
     </row>
@@ -15478,6 +15694,16 @@
           <t/>
         </is>
       </c>
+      <c r="ED36" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EE36" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="8" t="inlineStr">
@@ -16013,6 +16239,16 @@
           <t/>
         </is>
       </c>
+      <c r="ED37" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EE37" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="8" t="inlineStr">
@@ -16548,6 +16784,14 @@
           <t/>
         </is>
       </c>
+      <c r="ED38" s="31" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="EE38" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="8" t="inlineStr">
@@ -17107,6 +17351,14 @@
           <t/>
         </is>
       </c>
+      <c r="ED39" s="19" t="n">
+        <v>26.309</v>
+      </c>
+      <c r="EE39" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="8" t="inlineStr">
@@ -17774,6 +18026,16 @@
           <t/>
         </is>
       </c>
+      <c r="ED40" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EE40" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="8" t="inlineStr">
@@ -18301,10 +18563,20 @@
           <t/>
         </is>
       </c>
-      <c r="EB41" s="27" t="n">
-        <v>0.0</v>
+      <c r="EB41" s="19" t="n">
+        <v>79.633</v>
       </c>
       <c r="EC41" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ED41" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EE41" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -18956,6 +19228,16 @@
           <t/>
         </is>
       </c>
+      <c r="ED42" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EE42" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="8" t="inlineStr">
@@ -19539,6 +19821,14 @@
           <t/>
         </is>
       </c>
+      <c r="ED43" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EE43" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="8" t="inlineStr">
@@ -20090,12 +20380,20 @@
           <t/>
         </is>
       </c>
-      <c r="EB44" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="EB44" s="20" t="n">
+        <v>23.061</v>
       </c>
       <c r="EC44" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ED44" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EE44" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -20639,6 +20937,16 @@
           <t/>
         </is>
       </c>
+      <c r="ED45" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EE45" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="8" t="inlineStr">
@@ -21190,12 +21498,20 @@
           <t/>
         </is>
       </c>
-      <c r="EB46" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="EB46" s="31" t="n">
+        <v>0.0</v>
       </c>
       <c r="EC46" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ED46" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EE46" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -21761,6 +22077,16 @@
           <t/>
         </is>
       </c>
+      <c r="ED47" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EE47" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="8" t="inlineStr">
@@ -22288,12 +22614,20 @@
           <t/>
         </is>
       </c>
-      <c r="EB48" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="EB48" s="31" t="n">
+        <v>627.0</v>
       </c>
       <c r="EC48" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ED48" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EE48" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -22837,6 +23171,16 @@
           <t/>
         </is>
       </c>
+      <c r="ED49" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EE49" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="8" t="inlineStr">
@@ -23454,6 +23798,16 @@
           <t/>
         </is>
       </c>
+      <c r="ED50" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EE50" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="8" t="inlineStr">
@@ -24083,12 +24437,20 @@
           <t/>
         </is>
       </c>
-      <c r="EB51" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="EB51" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="EC51" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ED51" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EE51" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -24145,7 +24507,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="66">
+  <mergeCells count="67">
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
@@ -24212,6 +24574,7 @@
     <mergeCell ref="DX10:DY10"/>
     <mergeCell ref="DZ10:EA10"/>
     <mergeCell ref="EB10:EC10"/>
+    <mergeCell ref="ED10:EE10"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/EUR.xlsx
+++ b/EUR.xlsx
@@ -496,7 +496,7 @@
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>Data extracted on 25/08/2025 14:40:05 from [ESTAT]</t>
+          <t>Data extracted on 02/09/2025 14:29:50 from [ESTAT]</t>
         </is>
       </c>
     </row>
@@ -508,7 +508,7 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Stock levels for gas products - monthly data [nrg_stk_gasm__custom_17860137]</t>
+          <t>Stock levels for gas products - monthly data [nrg_stk_gasm__custom_17929629]</t>
         </is>
       </c>
     </row>
@@ -520,7 +520,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>22/08/2025 23:00</t>
+          <t>01/09/2025 23:00</t>
         </is>
       </c>
     </row>
@@ -2484,10 +2484,8 @@
           <t/>
         </is>
       </c>
-      <c r="EB12" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="EB12" s="31" t="n">
+        <v>53661.15</v>
       </c>
       <c r="EC12" s="11" t="inlineStr">
         <is>
@@ -6884,20 +6882,16 @@
           <t/>
         </is>
       </c>
-      <c r="EB20" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="EB20" s="20" t="n">
+        <v>81.856</v>
       </c>
       <c r="EC20" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="ED20" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="ED20" s="31" t="n">
+        <v>71.6</v>
       </c>
       <c r="EE20" s="11" t="inlineStr">
         <is>
@@ -11264,10 +11258,8 @@
           <t/>
         </is>
       </c>
-      <c r="ED28" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="ED28" s="31" t="n">
+        <v>0.0</v>
       </c>
       <c r="EE28" s="11" t="inlineStr">
         <is>
@@ -13443,7 +13435,7 @@
       </c>
       <c r="EE32" s="11" t="inlineStr">
         <is>
-          <t>p</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -16239,10 +16231,8 @@
           <t/>
         </is>
       </c>
-      <c r="ED37" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="ED37" s="19" t="n">
+        <v>2358.814</v>
       </c>
       <c r="EE37" s="10" t="inlineStr">
         <is>
@@ -22622,10 +22612,8 @@
           <t/>
         </is>
       </c>
-      <c r="ED48" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="ED48" s="31" t="n">
+        <v>622.0</v>
       </c>
       <c r="EE48" s="11" t="inlineStr">
         <is>

--- a/EUR.xlsx
+++ b/EUR.xlsx
@@ -491,12 +491,14 @@
     <col min="133" max="133" width="4.98046875" customWidth="true"/>
     <col min="134" max="134" width="9.9609375" customWidth="true"/>
     <col min="135" max="135" width="4.98046875" customWidth="true"/>
+    <col min="136" max="136" width="9.9609375" customWidth="true"/>
+    <col min="137" max="137" width="4.98046875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>Data extracted on 02/09/2025 14:29:50 from [ESTAT]</t>
+          <t>Data extracted on 22/09/2025 16:07:00 from [ESTAT]</t>
         </is>
       </c>
     </row>
@@ -508,7 +510,7 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Stock levels for gas products - monthly data [nrg_stk_gasm__custom_17929629]</t>
+          <t>Stock levels for gas products - monthly data [nrg_stk_gasm__custom_18132115]</t>
         </is>
       </c>
     </row>
@@ -520,7 +522,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>01/09/2025 23:00</t>
+          <t>17/09/2025 23:00</t>
         </is>
       </c>
     </row>
@@ -1252,6 +1254,16 @@
           <t/>
         </is>
       </c>
+      <c r="EF10" s="4" t="inlineStr">
+        <is>
+          <t>2025-08</t>
+        </is>
+      </c>
+      <c r="EG10" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
@@ -1929,6 +1941,16 @@
           <t/>
         </is>
       </c>
+      <c r="EF11" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EG11" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="inlineStr">
@@ -2453,7 +2475,7 @@
         </is>
       </c>
       <c r="DT12" s="20" t="n">
-        <v>59667.264</v>
+        <v>59643.217</v>
       </c>
       <c r="DU12" s="11" t="inlineStr">
         <is>
@@ -2469,7 +2491,7 @@
         </is>
       </c>
       <c r="DX12" s="20" t="n">
-        <v>38423.802</v>
+        <v>38334.359</v>
       </c>
       <c r="DY12" s="11" t="inlineStr">
         <is>
@@ -2477,27 +2499,35 @@
         </is>
       </c>
       <c r="DZ12" s="20" t="n">
-        <v>43987.059</v>
+        <v>43897.617</v>
       </c>
       <c r="EA12" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="EB12" s="31" t="n">
-        <v>53661.15</v>
+      <c r="EB12" s="20" t="n">
+        <v>53571.707</v>
       </c>
       <c r="EC12" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="ED12" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="ED12" s="20" t="n">
+        <v>64462.189</v>
       </c>
       <c r="EE12" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EF12" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EG12" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3045,6 +3075,14 @@
           <t/>
         </is>
       </c>
+      <c r="EF13" s="27" t="n">
+        <v>841.9</v>
+      </c>
+      <c r="EG13" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="inlineStr">
@@ -3585,6 +3623,14 @@
       </c>
       <c r="EE14" s="11" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EF14" s="31" t="n">
+        <v>344.11</v>
+      </c>
+      <c r="EG14" s="11" t="inlineStr">
+        <is>
           <t>p</t>
         </is>
       </c>
@@ -4131,6 +4177,14 @@
           <t/>
         </is>
       </c>
+      <c r="EF15" s="19" t="n">
+        <v>2583.472</v>
+      </c>
+      <c r="EG15" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="inlineStr">
@@ -4674,6 +4728,14 @@
           <t/>
         </is>
       </c>
+      <c r="EF16" s="20" t="n">
+        <v>337.866</v>
+      </c>
+      <c r="EG16" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="inlineStr">
@@ -5209,12 +5271,20 @@
           <t/>
         </is>
       </c>
-      <c r="ED17" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="ED17" s="27" t="n">
+        <v>11261.0</v>
       </c>
       <c r="EE17" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EF17" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EG17" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5784,6 +5854,16 @@
           <t/>
         </is>
       </c>
+      <c r="EF18" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EG18" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="inlineStr">
@@ -6355,6 +6435,14 @@
           <t/>
         </is>
       </c>
+      <c r="EF19" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EG19" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
@@ -6898,6 +6986,16 @@
           <t/>
         </is>
       </c>
+      <c r="EF20" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EG20" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="inlineStr">
@@ -7438,7 +7536,15 @@
       </c>
       <c r="EE21" s="10" t="inlineStr">
         <is>
-          <t>e</t>
+          <t/>
+        </is>
+      </c>
+      <c r="EF21" s="19" t="n">
+        <v>3266.222</v>
+      </c>
+      <c r="EG21" s="10" t="inlineStr">
+        <is>
+          <t>p</t>
         </is>
       </c>
     </row>
@@ -7984,6 +8090,16 @@
           <t/>
         </is>
       </c>
+      <c r="EF22" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EG22" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="inlineStr">
@@ -8524,7 +8640,15 @@
       </c>
       <c r="EE23" s="10" t="inlineStr">
         <is>
-          <t>p</t>
+          <t/>
+        </is>
+      </c>
+      <c r="EF23" s="27" t="n">
+        <v>408.9</v>
+      </c>
+      <c r="EG23" s="10" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -9070,6 +9194,14 @@
           <t/>
         </is>
       </c>
+      <c r="EF24" s="20" t="n">
+        <v>15454.369</v>
+      </c>
+      <c r="EG24" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="inlineStr">
@@ -9613,6 +9745,14 @@
           <t/>
         </is>
       </c>
+      <c r="EF25" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EG25" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="inlineStr">
@@ -10156,6 +10296,16 @@
           <t/>
         </is>
       </c>
+      <c r="EF26" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EG26" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="8" t="inlineStr">
@@ -10699,6 +10849,14 @@
           <t/>
         </is>
       </c>
+      <c r="EF27" s="27" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="EG27" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="8" t="inlineStr">
@@ -11266,6 +11424,14 @@
           <t/>
         </is>
       </c>
+      <c r="EF28" s="31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EG28" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="inlineStr">
@@ -11809,6 +11975,14 @@
           <t/>
         </is>
       </c>
+      <c r="EF29" s="27" t="n">
+        <v>3808.8</v>
+      </c>
+      <c r="EG29" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="8" t="inlineStr">
@@ -12352,6 +12526,14 @@
           <t/>
         </is>
       </c>
+      <c r="EF30" s="20" t="n">
+        <v>27.311</v>
+      </c>
+      <c r="EG30" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="inlineStr">
@@ -12848,7 +13030,7 @@
         </is>
       </c>
       <c r="DT31" s="19" t="n">
-        <v>5984.028</v>
+        <v>5959.982</v>
       </c>
       <c r="DU31" s="10" t="inlineStr">
         <is>
@@ -12864,7 +13046,7 @@
         </is>
       </c>
       <c r="DX31" s="19" t="n">
-        <v>3621.639</v>
+        <v>3532.197</v>
       </c>
       <c r="DY31" s="10" t="inlineStr">
         <is>
@@ -12872,7 +13054,7 @@
         </is>
       </c>
       <c r="DZ31" s="19" t="n">
-        <v>4371.857</v>
+        <v>4282.414</v>
       </c>
       <c r="EA31" s="10" t="inlineStr">
         <is>
@@ -12880,7 +13062,7 @@
         </is>
       </c>
       <c r="EB31" s="19" t="n">
-        <v>5895.839</v>
+        <v>5806.397</v>
       </c>
       <c r="EC31" s="10" t="inlineStr">
         <is>
@@ -12888,9 +13070,17 @@
         </is>
       </c>
       <c r="ED31" s="19" t="n">
-        <v>7856.609</v>
+        <v>7765.076</v>
       </c>
       <c r="EE31" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EF31" s="19" t="n">
+        <v>9309.184</v>
+      </c>
+      <c r="EG31" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -13438,6 +13628,14 @@
           <t/>
         </is>
       </c>
+      <c r="EF32" s="20" t="n">
+        <v>6754.675</v>
+      </c>
+      <c r="EG32" s="11" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="inlineStr">
@@ -13981,6 +14179,14 @@
           <t/>
         </is>
       </c>
+      <c r="EF33" s="19" t="n">
+        <v>2823.276</v>
+      </c>
+      <c r="EG33" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="8" t="inlineStr">
@@ -14524,6 +14730,16 @@
           <t>p</t>
         </is>
       </c>
+      <c r="EF34" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EG34" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="8" t="inlineStr">
@@ -15056,13 +15272,21 @@
       </c>
       <c r="EC35" s="10" t="inlineStr">
         <is>
-          <t>p</t>
+          <t/>
         </is>
       </c>
       <c r="ED35" s="27" t="n">
         <v>1749.0</v>
       </c>
       <c r="EE35" s="10" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="EF35" s="27" t="n">
+        <v>2180.0</v>
+      </c>
+      <c r="EG35" s="10" t="inlineStr">
         <is>
           <t>p</t>
         </is>
@@ -15696,6 +15920,16 @@
           <t/>
         </is>
       </c>
+      <c r="EF36" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EG36" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="8" t="inlineStr">
@@ -16239,6 +16473,16 @@
           <t/>
         </is>
       </c>
+      <c r="EF37" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EG37" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="8" t="inlineStr">
@@ -16782,6 +17026,14 @@
           <t/>
         </is>
       </c>
+      <c r="EF38" s="31" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="EG38" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="8" t="inlineStr">
@@ -17349,6 +17601,14 @@
           <t/>
         </is>
       </c>
+      <c r="EF39" s="19" t="n">
+        <v>32.277</v>
+      </c>
+      <c r="EG39" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="8" t="inlineStr">
@@ -18026,6 +18286,16 @@
           <t/>
         </is>
       </c>
+      <c r="EF40" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EG40" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="8" t="inlineStr">
@@ -18571,6 +18841,16 @@
           <t/>
         </is>
       </c>
+      <c r="EF41" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EG41" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="8" t="inlineStr">
@@ -19228,6 +19508,16 @@
           <t/>
         </is>
       </c>
+      <c r="EF42" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EG42" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="8" t="inlineStr">
@@ -19819,6 +20109,14 @@
           <t/>
         </is>
       </c>
+      <c r="EF43" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EG43" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="8" t="inlineStr">
@@ -20388,6 +20686,16 @@
           <t/>
         </is>
       </c>
+      <c r="EF44" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EG44" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="8" t="inlineStr">
@@ -20937,6 +21245,16 @@
           <t/>
         </is>
       </c>
+      <c r="EF45" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EG45" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="8" t="inlineStr">
@@ -21506,6 +21824,16 @@
           <t/>
         </is>
       </c>
+      <c r="EF46" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EG46" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="8" t="inlineStr">
@@ -22077,6 +22405,16 @@
           <t/>
         </is>
       </c>
+      <c r="EF47" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EG47" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="8" t="inlineStr">
@@ -22620,6 +22958,16 @@
           <t/>
         </is>
       </c>
+      <c r="EF48" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EG48" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="8" t="inlineStr">
@@ -23169,6 +23517,16 @@
           <t/>
         </is>
       </c>
+      <c r="EF49" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EG49" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="8" t="inlineStr">
@@ -23796,6 +24154,16 @@
           <t/>
         </is>
       </c>
+      <c r="EF50" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EG50" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="8" t="inlineStr">
@@ -24443,6 +24811,16 @@
           <t/>
         </is>
       </c>
+      <c r="EF51" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EG51" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -24473,29 +24851,17 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>p</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>estimated</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>provisional</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="68">
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
@@ -24563,6 +24929,7 @@
     <mergeCell ref="DZ10:EA10"/>
     <mergeCell ref="EB10:EC10"/>
     <mergeCell ref="ED10:EE10"/>
+    <mergeCell ref="EF10:EG10"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/EUR.xlsx
+++ b/EUR.xlsx
@@ -493,12 +493,14 @@
     <col min="135" max="135" width="4.98046875" customWidth="true"/>
     <col min="136" max="136" width="9.9609375" customWidth="true"/>
     <col min="137" max="137" width="4.98046875" customWidth="true"/>
+    <col min="138" max="138" width="9.9609375" customWidth="true"/>
+    <col min="139" max="139" width="4.98046875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>Data extracted on 22/09/2025 16:07:00 from [ESTAT]</t>
+          <t>Data extracted on 22/10/2025 15:32:39 from [ESTAT]</t>
         </is>
       </c>
     </row>
@@ -510,7 +512,7 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Stock levels for gas products - monthly data [nrg_stk_gasm__custom_18132115]</t>
+          <t>Stock levels for gas products - monthly data [nrg_stk_gasm__custom_18523415]</t>
         </is>
       </c>
     </row>
@@ -522,7 +524,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>17/09/2025 23:00</t>
+          <t>21/10/2025 23:00</t>
         </is>
       </c>
     </row>
@@ -1264,6 +1266,16 @@
           <t/>
         </is>
       </c>
+      <c r="EH10" s="4" t="inlineStr">
+        <is>
+          <t>2025-09</t>
+        </is>
+      </c>
+      <c r="EI10" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
@@ -1951,6 +1963,16 @@
           <t/>
         </is>
       </c>
+      <c r="EH11" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EI11" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="inlineStr">
@@ -2522,12 +2544,20 @@
           <t/>
         </is>
       </c>
-      <c r="EF12" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="EF12" s="20" t="n">
+        <v>74711.708</v>
       </c>
       <c r="EG12" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EH12" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EI12" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3083,6 +3113,14 @@
           <t/>
         </is>
       </c>
+      <c r="EH13" s="27" t="n">
+        <v>923.6</v>
+      </c>
+      <c r="EI13" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="inlineStr">
@@ -3634,6 +3672,16 @@
           <t>p</t>
         </is>
       </c>
+      <c r="EH14" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EI14" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="inlineStr">
@@ -4185,6 +4233,14 @@
           <t/>
         </is>
       </c>
+      <c r="EH15" s="19" t="n">
+        <v>3094.424</v>
+      </c>
+      <c r="EI15" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="inlineStr">
@@ -4736,6 +4792,14 @@
           <t/>
         </is>
       </c>
+      <c r="EH16" s="20" t="n">
+        <v>395.601</v>
+      </c>
+      <c r="EI16" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="inlineStr">
@@ -5279,12 +5343,20 @@
           <t/>
         </is>
       </c>
-      <c r="EF17" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="EF17" s="27" t="n">
+        <v>13540.0</v>
       </c>
       <c r="EG17" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EH17" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EI17" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5854,12 +5926,18 @@
           <t/>
         </is>
       </c>
-      <c r="EF18" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="EF18" s="31" t="n">
+        <v>0.0</v>
       </c>
       <c r="EG18" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EH18" s="31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EI18" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6443,6 +6521,14 @@
           <t/>
         </is>
       </c>
+      <c r="EH19" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EI19" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
@@ -6986,12 +7072,18 @@
           <t/>
         </is>
       </c>
-      <c r="EF20" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="EF20" s="20" t="n">
+        <v>108.525</v>
       </c>
       <c r="EG20" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EH20" s="20" t="n">
+        <v>83.087</v>
+      </c>
+      <c r="EI20" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -7544,7 +7636,15 @@
       </c>
       <c r="EG21" s="10" t="inlineStr">
         <is>
-          <t>p</t>
+          <t/>
+        </is>
+      </c>
+      <c r="EH21" s="19" t="n">
+        <v>3384.723</v>
+      </c>
+      <c r="EI21" s="10" t="inlineStr">
+        <is>
+          <t>e</t>
         </is>
       </c>
     </row>
@@ -8090,12 +8190,20 @@
           <t/>
         </is>
       </c>
-      <c r="EF22" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="EF22" s="20" t="n">
+        <v>8538.113</v>
       </c>
       <c r="EG22" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EH22" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EI22" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -8651,6 +8759,14 @@
           <t/>
         </is>
       </c>
+      <c r="EH23" s="27" t="n">
+        <v>390.9</v>
+      </c>
+      <c r="EI23" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="inlineStr">
@@ -9202,6 +9318,14 @@
           <t/>
         </is>
       </c>
+      <c r="EH24" s="20" t="n">
+        <v>17176.101</v>
+      </c>
+      <c r="EI24" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="inlineStr">
@@ -9753,6 +9877,14 @@
           <t/>
         </is>
       </c>
+      <c r="EH25" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EI25" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="inlineStr">
@@ -10296,12 +10428,18 @@
           <t/>
         </is>
       </c>
-      <c r="EF26" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="EF26" s="20" t="n">
+        <v>995.876</v>
       </c>
       <c r="EG26" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EH26" s="20" t="n">
+        <v>1055.568</v>
+      </c>
+      <c r="EI26" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -10857,6 +10995,14 @@
           <t/>
         </is>
       </c>
+      <c r="EH27" s="27" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="EI27" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="8" t="inlineStr">
@@ -11432,6 +11578,14 @@
           <t/>
         </is>
       </c>
+      <c r="EH28" s="31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EI28" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="inlineStr">
@@ -11983,6 +12137,14 @@
           <t/>
         </is>
       </c>
+      <c r="EH29" s="27" t="n">
+        <v>4258.8</v>
+      </c>
+      <c r="EI29" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="8" t="inlineStr">
@@ -12534,6 +12696,14 @@
           <t/>
         </is>
       </c>
+      <c r="EH30" s="20" t="n">
+        <v>55.023</v>
+      </c>
+      <c r="EI30" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="inlineStr">
@@ -13078,9 +13248,17 @@
         </is>
       </c>
       <c r="EF31" s="19" t="n">
-        <v>9309.184</v>
+        <v>9310.286</v>
       </c>
       <c r="EG31" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EH31" s="19" t="n">
+        <v>10374.401</v>
+      </c>
+      <c r="EI31" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -13633,6 +13811,14 @@
       </c>
       <c r="EG32" s="11" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EH32" s="20" t="n">
+        <v>7474.748</v>
+      </c>
+      <c r="EI32" s="11" t="inlineStr">
+        <is>
           <t>p</t>
         </is>
       </c>
@@ -14187,6 +14373,14 @@
           <t/>
         </is>
       </c>
+      <c r="EH33" s="19" t="n">
+        <v>3369.151</v>
+      </c>
+      <c r="EI33" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="8" t="inlineStr">
@@ -14730,14 +14924,20 @@
           <t>p</t>
         </is>
       </c>
-      <c r="EF34" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="EF34" s="31" t="n">
+        <v>440.61</v>
       </c>
       <c r="EG34" s="11" t="inlineStr">
         <is>
-          <t/>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="EH34" s="20" t="n">
+        <v>453.335</v>
+      </c>
+      <c r="EI34" s="11" t="inlineStr">
+        <is>
+          <t>p</t>
         </is>
       </c>
     </row>
@@ -15280,7 +15480,7 @@
       </c>
       <c r="EE35" s="10" t="inlineStr">
         <is>
-          <t>p</t>
+          <t/>
         </is>
       </c>
       <c r="EF35" s="27" t="n">
@@ -15289,6 +15489,16 @@
       <c r="EG35" s="10" t="inlineStr">
         <is>
           <t>p</t>
+        </is>
+      </c>
+      <c r="EH35" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EI35" s="10" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -15930,6 +16140,16 @@
           <t/>
         </is>
       </c>
+      <c r="EH36" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EI36" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="8" t="inlineStr">
@@ -16473,12 +16693,20 @@
           <t/>
         </is>
       </c>
-      <c r="EF37" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="EF37" s="19" t="n">
+        <v>2748.021</v>
       </c>
       <c r="EG37" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EH37" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EI37" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -17034,6 +17262,14 @@
           <t/>
         </is>
       </c>
+      <c r="EH38" s="31" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="EI38" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="8" t="inlineStr">
@@ -17609,6 +17845,14 @@
           <t/>
         </is>
       </c>
+      <c r="EH39" s="19" t="n">
+        <v>15.568</v>
+      </c>
+      <c r="EI39" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="8" t="inlineStr">
@@ -18296,6 +18540,16 @@
           <t/>
         </is>
       </c>
+      <c r="EH40" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EI40" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="8" t="inlineStr">
@@ -18831,22 +19085,28 @@
           <t/>
         </is>
       </c>
-      <c r="ED41" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="ED41" s="19" t="n">
+        <v>76.888</v>
       </c>
       <c r="EE41" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="EF41" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="EF41" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="EG41" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EH41" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EI41" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -19518,6 +19778,16 @@
           <t/>
         </is>
       </c>
+      <c r="EH42" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EI42" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="8" t="inlineStr">
@@ -20117,6 +20387,14 @@
           <t/>
         </is>
       </c>
+      <c r="EH43" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EI43" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="8" t="inlineStr">
@@ -20676,22 +20954,28 @@
           <t/>
         </is>
       </c>
-      <c r="ED44" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="ED44" s="20" t="n">
+        <v>21.843</v>
       </c>
       <c r="EE44" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="EF44" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="EF44" s="20" t="n">
+        <v>21.213</v>
       </c>
       <c r="EG44" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EH44" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EI44" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -21215,30 +21499,24 @@
           <t/>
         </is>
       </c>
-      <c r="DZ45" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="DZ45" s="19" t="n">
+        <v>1.039</v>
       </c>
       <c r="EA45" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="EB45" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="EB45" s="19" t="n">
+        <v>1.045</v>
       </c>
       <c r="EC45" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="ED45" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="ED45" s="19" t="n">
+        <v>1.036</v>
       </c>
       <c r="EE45" s="10" t="inlineStr">
         <is>
@@ -21251,6 +21529,16 @@
         </is>
       </c>
       <c r="EG45" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EH45" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EI45" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -21814,22 +22102,28 @@
           <t/>
         </is>
       </c>
-      <c r="ED46" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="ED46" s="31" t="n">
+        <v>0.0</v>
       </c>
       <c r="EE46" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="EF46" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="EF46" s="31" t="n">
+        <v>0.0</v>
       </c>
       <c r="EG46" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EH46" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EI46" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -22415,6 +22709,16 @@
           <t/>
         </is>
       </c>
+      <c r="EH47" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EI47" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="8" t="inlineStr">
@@ -22958,12 +23262,20 @@
           <t/>
         </is>
       </c>
-      <c r="EF48" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="EF48" s="31" t="n">
+        <v>652.0</v>
       </c>
       <c r="EG48" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EH48" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EI48" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -23527,6 +23839,16 @@
           <t/>
         </is>
       </c>
+      <c r="EH49" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EI49" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="8" t="inlineStr">
@@ -24164,6 +24486,16 @@
           <t/>
         </is>
       </c>
+      <c r="EH50" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EI50" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="8" t="inlineStr">
@@ -24821,6 +25153,16 @@
           <t/>
         </is>
       </c>
+      <c r="EH51" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EI51" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -24851,17 +25193,29 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>estimated</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
           <t>p</t>
         </is>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>provisional</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="68">
+  <mergeCells count="69">
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
@@ -24930,6 +25284,7 @@
     <mergeCell ref="EB10:EC10"/>
     <mergeCell ref="ED10:EE10"/>
     <mergeCell ref="EF10:EG10"/>
+    <mergeCell ref="EH10:EI10"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/EUR.xlsx
+++ b/EUR.xlsx
@@ -495,12 +495,14 @@
     <col min="137" max="137" width="4.98046875" customWidth="true"/>
     <col min="138" max="138" width="9.9609375" customWidth="true"/>
     <col min="139" max="139" width="4.98046875" customWidth="true"/>
+    <col min="140" max="140" width="9.9609375" customWidth="true"/>
+    <col min="141" max="141" width="4.98046875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>Data extracted on 22/10/2025 15:32:39 from [ESTAT]</t>
+          <t>Data extracted on 18/11/2025 16:49:45 from [ESTAT]</t>
         </is>
       </c>
     </row>
@@ -512,7 +514,7 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Stock levels for gas products - monthly data [nrg_stk_gasm__custom_18523415]</t>
+          <t>Stock levels for gas products - monthly data [nrg_stk_gasm__custom_18954694]</t>
         </is>
       </c>
     </row>
@@ -524,7 +526,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>21/10/2025 23:00</t>
+          <t>15/11/2025 11:00</t>
         </is>
       </c>
     </row>
@@ -1276,6 +1278,16 @@
           <t/>
         </is>
       </c>
+      <c r="EJ10" s="4" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="EK10" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
@@ -1973,6 +1985,16 @@
           <t/>
         </is>
       </c>
+      <c r="EJ11" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EK11" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="inlineStr">
@@ -2562,6 +2584,16 @@
           <t/>
         </is>
       </c>
+      <c r="EJ12" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EK12" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="inlineStr">
@@ -3121,6 +3153,16 @@
           <t/>
         </is>
       </c>
+      <c r="EJ13" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EK13" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="inlineStr">
@@ -3669,17 +3711,23 @@
       </c>
       <c r="EG14" s="11" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EH14" s="31" t="n">
+        <v>434.36</v>
+      </c>
+      <c r="EI14" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EJ14" s="20" t="n">
+        <v>514.262</v>
+      </c>
+      <c r="EK14" s="11" t="inlineStr">
+        <is>
           <t>p</t>
-        </is>
-      </c>
-      <c r="EH14" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
-      </c>
-      <c r="EI14" s="11" t="inlineStr">
-        <is>
-          <t/>
         </is>
       </c>
     </row>
@@ -4241,6 +4289,14 @@
           <t/>
         </is>
       </c>
+      <c r="EJ15" s="19" t="n">
+        <v>3369.446</v>
+      </c>
+      <c r="EK15" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="inlineStr">
@@ -4800,6 +4856,16 @@
           <t/>
         </is>
       </c>
+      <c r="EJ16" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EK16" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="inlineStr">
@@ -5361,6 +5427,16 @@
           <t/>
         </is>
       </c>
+      <c r="EJ17" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EK17" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="inlineStr">
@@ -5942,6 +6018,16 @@
           <t/>
         </is>
       </c>
+      <c r="EJ18" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EK18" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="inlineStr">
@@ -6529,6 +6615,14 @@
           <t/>
         </is>
       </c>
+      <c r="EJ19" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EK19" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
@@ -7088,6 +7182,14 @@
           <t/>
         </is>
       </c>
+      <c r="EJ20" s="31" t="n">
+        <v>91.57</v>
+      </c>
+      <c r="EK20" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="inlineStr">
@@ -7644,6 +7746,14 @@
       </c>
       <c r="EI21" s="10" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EJ21" s="19" t="n">
+        <v>3370.395</v>
+      </c>
+      <c r="EK21" s="10" t="inlineStr">
+        <is>
           <t>e</t>
         </is>
       </c>
@@ -8198,12 +8308,20 @@
           <t/>
         </is>
       </c>
-      <c r="EH22" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="EH22" s="31" t="n">
+        <v>9649.9</v>
       </c>
       <c r="EI22" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EJ22" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EK22" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -8767,6 +8885,14 @@
           <t/>
         </is>
       </c>
+      <c r="EJ23" s="27" t="n">
+        <v>331.0</v>
+      </c>
+      <c r="EK23" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="inlineStr">
@@ -9318,10 +9444,18 @@
           <t/>
         </is>
       </c>
-      <c r="EH24" s="20" t="n">
-        <v>17176.101</v>
+      <c r="EH24" s="31" t="n">
+        <v>17174.92</v>
       </c>
       <c r="EI24" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EJ24" s="20" t="n">
+        <v>17916.944</v>
+      </c>
+      <c r="EK24" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -9885,6 +10019,14 @@
           <t/>
         </is>
       </c>
+      <c r="EJ25" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EK25" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="inlineStr">
@@ -10444,6 +10586,16 @@
           <t/>
         </is>
       </c>
+      <c r="EJ26" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EK26" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="8" t="inlineStr">
@@ -11003,6 +11155,16 @@
           <t/>
         </is>
       </c>
+      <c r="EJ27" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EK27" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="8" t="inlineStr">
@@ -11586,6 +11748,14 @@
           <t/>
         </is>
       </c>
+      <c r="EJ28" s="31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EK28" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="inlineStr">
@@ -12145,6 +12315,16 @@
           <t/>
         </is>
       </c>
+      <c r="EJ29" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EK29" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="8" t="inlineStr">
@@ -12704,6 +12884,14 @@
           <t/>
         </is>
       </c>
+      <c r="EJ30" s="20" t="n">
+        <v>21.873</v>
+      </c>
+      <c r="EK30" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="inlineStr">
@@ -13256,9 +13444,17 @@
         </is>
       </c>
       <c r="EH31" s="19" t="n">
-        <v>10374.401</v>
+        <v>10377.694</v>
       </c>
       <c r="EI31" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EJ31" s="19" t="n">
+        <v>11194.108</v>
+      </c>
+      <c r="EK31" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -13819,6 +14015,14 @@
       </c>
       <c r="EI32" s="11" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EJ32" s="20" t="n">
+        <v>7845.824</v>
+      </c>
+      <c r="EK32" s="11" t="inlineStr">
+        <is>
           <t>p</t>
         </is>
       </c>
@@ -14381,6 +14585,16 @@
           <t/>
         </is>
       </c>
+      <c r="EJ33" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EK33" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="8" t="inlineStr">
@@ -14940,6 +15154,16 @@
           <t>p</t>
         </is>
       </c>
+      <c r="EJ34" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EK34" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="8" t="inlineStr">
@@ -15488,15 +15712,23 @@
       </c>
       <c r="EG35" s="10" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EH35" s="27" t="n">
+        <v>2644.0</v>
+      </c>
+      <c r="EI35" s="10" t="inlineStr">
+        <is>
           <t>p</t>
         </is>
       </c>
-      <c r="EH35" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
-      </c>
-      <c r="EI35" s="10" t="inlineStr">
+      <c r="EJ35" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EK35" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -16150,6 +16382,16 @@
           <t/>
         </is>
       </c>
+      <c r="EJ36" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EK36" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="8" t="inlineStr">
@@ -16701,12 +16943,20 @@
           <t/>
         </is>
       </c>
-      <c r="EH37" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="EH37" s="19" t="n">
+        <v>3022.503</v>
       </c>
       <c r="EI37" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EJ37" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EK37" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -17270,6 +17520,16 @@
           <t/>
         </is>
       </c>
+      <c r="EJ38" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EK38" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="8" t="inlineStr">
@@ -17853,6 +18113,16 @@
           <t/>
         </is>
       </c>
+      <c r="EJ39" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EK39" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="8" t="inlineStr">
@@ -18550,6 +18820,16 @@
           <t/>
         </is>
       </c>
+      <c r="EJ40" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EK40" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="8" t="inlineStr">
@@ -19093,20 +19373,28 @@
           <t/>
         </is>
       </c>
-      <c r="EF41" s="27" t="n">
-        <v>0.0</v>
+      <c r="EF41" s="19" t="n">
+        <v>63.801</v>
       </c>
       <c r="EG41" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="EH41" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="EH41" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="EI41" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EJ41" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EK41" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -19788,6 +20076,16 @@
           <t/>
         </is>
       </c>
+      <c r="EJ42" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EK42" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="8" t="inlineStr">
@@ -20395,6 +20693,14 @@
           <t/>
         </is>
       </c>
+      <c r="EJ43" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EK43" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="8" t="inlineStr">
@@ -20980,6 +21286,16 @@
           <t/>
         </is>
       </c>
+      <c r="EJ44" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EK44" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="8" t="inlineStr">
@@ -21523,10 +21839,8 @@
           <t/>
         </is>
       </c>
-      <c r="EF45" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="EF45" s="27" t="n">
+        <v>1.04</v>
       </c>
       <c r="EG45" s="10" t="inlineStr">
         <is>
@@ -21539,6 +21853,16 @@
         </is>
       </c>
       <c r="EI45" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EJ45" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EK45" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -22128,6 +22452,16 @@
           <t/>
         </is>
       </c>
+      <c r="EJ46" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EK46" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="8" t="inlineStr">
@@ -22719,6 +23053,16 @@
           <t/>
         </is>
       </c>
+      <c r="EJ47" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EK47" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="8" t="inlineStr">
@@ -23270,12 +23614,20 @@
           <t/>
         </is>
       </c>
-      <c r="EH48" s="11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="EH48" s="31" t="n">
+        <v>682.0</v>
       </c>
       <c r="EI48" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EJ48" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EK48" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -23799,52 +24151,52 @@
           <t/>
         </is>
       </c>
-      <c r="DZ49" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="DZ49" s="19" t="n">
+        <v>2504.121</v>
       </c>
       <c r="EA49" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="EB49" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="EB49" s="19" t="n">
+        <v>2941.717</v>
       </c>
       <c r="EC49" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="ED49" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="ED49" s="19" t="n">
+        <v>3679.796</v>
       </c>
       <c r="EE49" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="EF49" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="EF49" s="19" t="n">
+        <v>4318.809</v>
       </c>
       <c r="EG49" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="EH49" s="10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+      <c r="EH49" s="19" t="n">
+        <v>4953.562</v>
       </c>
       <c r="EI49" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EJ49" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EK49" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -24496,6 +24848,16 @@
           <t/>
         </is>
       </c>
+      <c r="EJ50" s="11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EK50" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="8" t="inlineStr">
@@ -25163,6 +25525,16 @@
           <t/>
         </is>
       </c>
+      <c r="EJ51" s="10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="EK51" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -25215,7 +25587,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="69">
+  <mergeCells count="70">
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
@@ -25285,6 +25657,7 @@
     <mergeCell ref="ED10:EE10"/>
     <mergeCell ref="EF10:EG10"/>
     <mergeCell ref="EH10:EI10"/>
+    <mergeCell ref="EJ10:EK10"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
